--- a/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por implantes en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>22898</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15412</v>
+        <v>15975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32531</v>
+        <v>32872</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0426177523897724</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02868439254065914</v>
+        <v>0.02973331965885184</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0605473753337635</v>
+        <v>0.06118257167839053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -762,19 +762,19 @@
         <v>30825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23198</v>
+        <v>23102</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40159</v>
+        <v>41006</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0392877213345935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02956745060970216</v>
+        <v>0.02944440687039119</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05118487820243941</v>
+        <v>0.05226426760475356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -783,19 +783,19 @@
         <v>53722</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42749</v>
+        <v>43706</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65474</v>
+        <v>67496</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04064122351087644</v>
+        <v>0.04064122351087645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0323400744820463</v>
+        <v>0.03306385714243011</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04953165584119412</v>
+        <v>0.05106090987475929</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>514381</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>504748</v>
+        <v>504407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521867</v>
+        <v>521304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9573822476102276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9394526246662366</v>
+        <v>0.9388174283216101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9713156074593411</v>
+        <v>0.9702666803411482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1317</v>
@@ -833,19 +833,19 @@
         <v>753767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>744433</v>
+        <v>743586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>761394</v>
+        <v>761490</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9607122786654064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9488151217975606</v>
+        <v>0.9477357323952458</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9704325493902978</v>
+        <v>0.9705555931296087</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1936</v>
@@ -854,19 +854,19 @@
         <v>1268149</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1256397</v>
+        <v>1254375</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1279122</v>
+        <v>1278165</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9593587764891236</v>
+        <v>0.9593587764891237</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9504683441588058</v>
+        <v>0.9489390901252406</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9676599255179537</v>
+        <v>0.9669361428575696</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>89900</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73044</v>
+        <v>71219</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109842</v>
+        <v>110197</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04188257238645918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03402976755678198</v>
+        <v>0.03317952810800166</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05117305021274401</v>
+        <v>0.0513384202797406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -979,19 +979,19 @@
         <v>82645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68376</v>
+        <v>69123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98219</v>
+        <v>99145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03915724016043923</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03239668248774081</v>
+        <v>0.03275056363579106</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0465363825504846</v>
+        <v>0.04697497030210944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>233</v>
@@ -1000,19 +1000,19 @@
         <v>172545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149487</v>
+        <v>150797</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>197627</v>
+        <v>196093</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0405313934682822</v>
+        <v>0.04053139346828221</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03511489884122457</v>
+        <v>0.0354227098137939</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04642324267116388</v>
+        <v>0.04606290494671664</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2056578</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2036636</v>
+        <v>2036281</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2073434</v>
+        <v>2075259</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9581174276135409</v>
+        <v>0.9581174276135408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.948826949787256</v>
+        <v>0.9486615797202596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9659702324432179</v>
+        <v>0.9668204718919984</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2711</v>
@@ -1050,19 +1050,19 @@
         <v>2027947</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2012373</v>
+        <v>2011447</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2042216</v>
+        <v>2041469</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9608427598395606</v>
+        <v>0.9608427598395607</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9534636174495156</v>
+        <v>0.9530250296978906</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9676033175122593</v>
+        <v>0.9672494363642091</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4539</v>
@@ -1071,19 +1071,19 @@
         <v>4084525</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4059443</v>
+        <v>4060977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4107583</v>
+        <v>4106273</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9594686065317178</v>
+        <v>0.9594686065317179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9535767573288357</v>
+        <v>0.9539370950532831</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9648851011587753</v>
+        <v>0.9645772901862056</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>42464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30978</v>
+        <v>31432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56135</v>
+        <v>56245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06050438235619656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04413856455868186</v>
+        <v>0.0447845316634363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07998287504390404</v>
+        <v>0.08013876543834049</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1196,19 +1196,19 @@
         <v>37344</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27624</v>
+        <v>28365</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48717</v>
+        <v>47724</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05155087488228994</v>
+        <v>0.05155087488228993</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03813333282660476</v>
+        <v>0.03915546648571074</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06725088261416594</v>
+        <v>0.06588023212698696</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -1217,19 +1217,19 @@
         <v>79809</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65433</v>
+        <v>65698</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97686</v>
+        <v>97876</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05595677908873137</v>
+        <v>0.05595677908873135</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04587764477363066</v>
+        <v>0.04606345495995467</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06849140344693168</v>
+        <v>0.06862468167440611</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>659377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>645706</v>
+        <v>645596</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>670863</v>
+        <v>670409</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9394956176438034</v>
+        <v>0.9394956176438033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.920017124956096</v>
+        <v>0.9198612345616597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9558614354413182</v>
+        <v>0.9552154683365639</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>928</v>
@@ -1267,19 +1267,19 @@
         <v>687069</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>675696</v>
+        <v>676689</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>696789</v>
+        <v>696048</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9484491251177101</v>
+        <v>0.94844912511771</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9327491173858341</v>
+        <v>0.9341197678730131</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9618666671733953</v>
+        <v>0.9608445335142896</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1550</v>
@@ -1288,19 +1288,19 @@
         <v>1346445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1328568</v>
+        <v>1328378</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1360821</v>
+        <v>1360556</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9440432209112688</v>
+        <v>0.9440432209112685</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9315085965530683</v>
+        <v>0.9313753183255942</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9541223552263692</v>
+        <v>0.9539365450400455</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>155262</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133870</v>
+        <v>132953</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180149</v>
+        <v>182709</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04585957929397646</v>
+        <v>0.04585957929397647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03954087999365477</v>
+        <v>0.03927011673225412</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0532102874958405</v>
+        <v>0.05396655543066187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>251</v>
@@ -1413,19 +1413,19 @@
         <v>150814</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133039</v>
+        <v>131715</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>172028</v>
+        <v>169597</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04166594116224235</v>
+        <v>0.04166594116224234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0367553338869963</v>
+        <v>0.03638951240390315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04752685108561339</v>
+        <v>0.04685523750271456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>423</v>
@@ -1434,19 +1434,19 @@
         <v>306076</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>276399</v>
+        <v>277668</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>338199</v>
+        <v>337163</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0436927190065011</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03945627630655932</v>
+        <v>0.03963746990523078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04827829110021428</v>
+        <v>0.0481303864624089</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3230336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3205449</v>
+        <v>3202889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3251728</v>
+        <v>3252645</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9541404207060236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9467897125041597</v>
+        <v>0.9460334445693382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9604591200063454</v>
+        <v>0.960729883267746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4956</v>
@@ -1484,19 +1484,19 @@
         <v>3468783</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3447569</v>
+        <v>3450000</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3486558</v>
+        <v>3487882</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9583340588377577</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9524731489143868</v>
+        <v>0.9531447624972854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9632446661130036</v>
+        <v>0.9636104875960968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8025</v>
@@ -1505,19 +1505,19 @@
         <v>6699119</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6666996</v>
+        <v>6668032</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6728796</v>
+        <v>6727527</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9563072809934988</v>
+        <v>0.9563072809934989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9517217088997856</v>
+        <v>0.9518696135375907</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9605437236934408</v>
+        <v>0.9603625300947692</v>
       </c>
     </row>
     <row r="15">
